--- a/data/DICCIONARIO_ATENCIONES_DE_URGENCIA.xlsx
+++ b/data/DICCIONARIO_ATENCIONES_DE_URGENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\psuarezo\TEMAS\DATOS ABIERTOS\DICCIONARIO DATOS ABIERTOS PUBLICADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasminsal-my.sharepoint.com/personal/santiago_farias_redsalud_gob_cl/Documents/Escritorio/GIE/IRA-ERA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74321B19-1D37-4A19-BCB6-3BCAF3988521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{74321B19-1D37-4A19-BCB6-3BCAF3988521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF82E1F-612B-47C2-8E17-5133DF887F6F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha" sheetId="18" r:id="rId1"/>
@@ -4466,7 +4466,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4493,6 +4493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4861,27 +4867,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4890,6 +4875,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4920,63 +4955,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -5260,9 +5266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5300,9 +5306,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5335,26 +5341,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5387,26 +5376,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5604,292 +5576,292 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>1404</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>1407</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>1408</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="24" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>1409</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>1410</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>1411</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>1412</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>1413</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="33"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="45" t="s">
         <v>1414</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="48" t="s">
         <v>1415</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="45" t="s">
         <v>1416</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="48" t="s">
         <v>1417</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="45" t="s">
         <v>1418</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="27" t="s">
         <v>1419</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="27" t="s">
         <v>1420</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="31" t="s">
         <v>1421</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="31" t="s">
         <v>1405</v>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="31" t="s">
         <v>1422</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="31" t="s">
         <v>1405</v>
       </c>
-      <c r="D36" s="56"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="31" t="s">
         <v>1423</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="31" t="s">
         <v>1405</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="31" t="s">
         <v>1424</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="31" t="s">
         <v>1405</v>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5927,9 +5899,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5944,79 +5916,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="62" t="s">
         <v>1426</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-    </row>
-    <row r="5" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -6032,1232 +6004,994 @@
       <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="60">
+      <c r="A6" s="59"/>
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="36" t="s">
         <v>1428</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="60">
+      <c r="A7" s="59"/>
+      <c r="B7" s="35">
         <v>2</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="60">
+      <c r="A8" s="59"/>
+      <c r="B8" s="35">
         <v>3</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="36" t="s">
         <v>1427</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="60">
+      <c r="A9" s="59"/>
+      <c r="B9" s="35">
         <v>4</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="36" t="s">
         <v>1429</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="60">
+      <c r="A10" s="59"/>
+      <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="60">
+      <c r="A11" s="59"/>
+      <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="60">
+      <c r="A12" s="59"/>
+      <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="60">
+      <c r="A13" s="59"/>
+      <c r="B13" s="35">
         <v>8</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="60">
+      <c r="A14" s="59"/>
+      <c r="B14" s="35">
         <v>9</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="60">
+      <c r="A15" s="59"/>
+      <c r="B15" s="35">
         <v>10</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="60">
+      <c r="A16" s="59"/>
+      <c r="B16" s="35">
         <v>11</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="36" t="s">
         <v>1400</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="60">
+      <c r="A17" s="59"/>
+      <c r="B17" s="35">
         <v>12</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" s="5" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="60">
+      <c r="A18" s="59"/>
+      <c r="B18" s="35">
         <v>13</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="36" t="s">
         <v>1397</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="36" t="s">
         <v>1399</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-    </row>
-    <row r="19" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-    </row>
-    <row r="20" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-    </row>
-    <row r="21" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-    </row>
-    <row r="22" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-    </row>
-    <row r="23" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-    </row>
-    <row r="24" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-    </row>
-    <row r="25" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-    </row>
-    <row r="26" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-    </row>
-    <row r="27" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-    </row>
-    <row r="28" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-    </row>
-    <row r="29" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-    </row>
-    <row r="30" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-    </row>
-    <row r="31" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-    </row>
-    <row r="32" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-    </row>
-    <row r="33" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-    </row>
-    <row r="34" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-    </row>
-    <row r="35" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-    </row>
-    <row r="36" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-    </row>
-    <row r="37" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-    </row>
-    <row r="38" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-    </row>
-    <row r="39" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-    </row>
-    <row r="40" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-    </row>
-    <row r="41" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-    </row>
-    <row r="42" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-    </row>
-    <row r="43" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-    </row>
-    <row r="44" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-    </row>
-    <row r="45" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-    </row>
-    <row r="46" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-    </row>
-    <row r="47" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-    </row>
-    <row r="48" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-    </row>
-    <row r="49" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-    </row>
-    <row r="50" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-    </row>
-    <row r="51" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-    </row>
-    <row r="52" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-    </row>
-    <row r="53" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-    </row>
-    <row r="54" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-    </row>
-    <row r="55" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-    </row>
-    <row r="56" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-    </row>
-    <row r="57" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="66"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-    </row>
-    <row r="58" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-    </row>
-    <row r="59" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-    </row>
-    <row r="60" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-    </row>
-    <row r="61" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-    </row>
-    <row r="62" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-    </row>
-    <row r="63" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="18"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-    </row>
-    <row r="64" spans="1:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="18"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-    </row>
-    <row r="65" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-    </row>
-    <row r="66" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="18"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-    </row>
-    <row r="67" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="18"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-    </row>
-    <row r="68" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="18"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-    </row>
-    <row r="69" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-    </row>
-    <row r="70" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-    </row>
-    <row r="71" spans="2:15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-    </row>
-    <row r="72" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18"/>
-    </row>
-    <row r="73" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-    </row>
-    <row r="74" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
-    </row>
-    <row r="75" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-    </row>
-    <row r="76" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-    </row>
-    <row r="77" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-    </row>
-    <row r="79" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="18"/>
-    </row>
-    <row r="80" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="18"/>
-    </row>
-    <row r="81" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="18"/>
-    </row>
-    <row r="82" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18"/>
-    </row>
-    <row r="83" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="18"/>
-    </row>
-    <row r="84" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18"/>
-    </row>
-    <row r="85" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="18"/>
-    </row>
-    <row r="86" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18"/>
-    </row>
-    <row r="87" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="18"/>
-    </row>
-    <row r="88" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="18"/>
-    </row>
-    <row r="89" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="18"/>
-    </row>
-    <row r="90" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="18"/>
-    </row>
-    <row r="91" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="18"/>
-    </row>
-    <row r="92" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="18"/>
-    </row>
-    <row r="93" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="18"/>
-    </row>
-    <row r="94" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="18"/>
-    </row>
-    <row r="95" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="18"/>
-    </row>
-    <row r="96" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="18"/>
-    </row>
-    <row r="97" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="18"/>
-    </row>
-    <row r="98" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18"/>
-    </row>
-    <row r="99" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="18"/>
-    </row>
-    <row r="100" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="18"/>
-    </row>
-    <row r="101" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="18"/>
-    </row>
-    <row r="102" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="18"/>
-    </row>
-    <row r="103" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="18"/>
-    </row>
-    <row r="104" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="18"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+    </row>
+    <row r="65" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+    </row>
+    <row r="66" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+    </row>
+    <row r="67" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+    </row>
+    <row r="68" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+    </row>
+    <row r="69" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+    </row>
+    <row r="70" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+    </row>
+    <row r="71" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7276,8 +7010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,2283 +7023,2283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>491</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7">
         <v>-1</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>450</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>452</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>453</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>454</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>455</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="66">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>457</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>458</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>459</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>460</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>461</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>462</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>463</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>464</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
       <c r="C23">
         <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
       <c r="C24">
         <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>466</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
       <c r="C25">
         <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>467</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
       <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>468</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>469</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
       <c r="C28">
         <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>470</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>471</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
       <c r="C30">
         <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>472</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="66">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
       <c r="C32">
         <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>474</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
       <c r="C33">
         <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>475</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
       <c r="C34">
         <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>476</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>477</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>478</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
       <c r="C37">
         <v>31</v>
       </c>
       <c r="D37" t="s">
         <v>479</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
       <c r="C38">
         <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>480</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
       <c r="C39">
         <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>481</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
       <c r="C40">
         <v>34</v>
       </c>
       <c r="D40" t="s">
         <v>482</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
       <c r="C41">
         <v>35</v>
       </c>
       <c r="D41" t="s">
         <v>483</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
       <c r="C42">
         <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>484</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
       <c r="C43">
         <v>37</v>
       </c>
       <c r="D43" t="s">
         <v>485</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
       <c r="C44">
         <v>38</v>
       </c>
       <c r="D44" t="s">
         <v>486</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="63"/>
+      <c r="AC44" s="63"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
       <c r="C45">
         <v>39</v>
       </c>
       <c r="D45" t="s">
         <v>487</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
       <c r="C46">
         <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>488</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="63"/>
+      <c r="AC46" s="63"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
       <c r="C47">
         <v>41</v>
       </c>
       <c r="D47" t="s">
         <v>489</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="63"/>
+      <c r="AB47" s="63"/>
+      <c r="AC47" s="63"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
       <c r="C48">
         <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>490</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="63"/>
+      <c r="AC48" s="63"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
+      <c r="AB49" s="63"/>
+      <c r="AC49" s="63"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="63"/>
+      <c r="AB51" s="63"/>
+      <c r="AC51" s="63"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="63"/>
+      <c r="AB52" s="63"/>
+      <c r="AC52" s="63"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="63"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="63"/>
+      <c r="AB53" s="63"/>
+      <c r="AC53" s="63"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="25"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="63"/>
+      <c r="AB54" s="63"/>
+      <c r="AC54" s="63"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="25"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="25"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="63"/>
+      <c r="Y56" s="63"/>
+      <c r="Z56" s="63"/>
+      <c r="AA56" s="63"/>
+      <c r="AB56" s="63"/>
+      <c r="AC56" s="63"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="Y57" s="63"/>
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="63"/>
+      <c r="AB57" s="63"/>
+      <c r="AC57" s="63"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="25"/>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="25"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="63"/>
+      <c r="X58" s="63"/>
+      <c r="Y58" s="63"/>
+      <c r="Z58" s="63"/>
+      <c r="AA58" s="63"/>
+      <c r="AB58" s="63"/>
+      <c r="AC58" s="63"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="63"/>
+      <c r="AB59" s="63"/>
+      <c r="AC59" s="63"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="63"/>
+      <c r="V60" s="63"/>
+      <c r="W60" s="63"/>
+      <c r="X60" s="63"/>
+      <c r="Y60" s="63"/>
+      <c r="Z60" s="63"/>
+      <c r="AA60" s="63"/>
+      <c r="AB60" s="63"/>
+      <c r="AC60" s="63"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="25"/>
-      <c r="AC61" s="25"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="63"/>
+      <c r="AB61" s="63"/>
+      <c r="AC61" s="63"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
-      <c r="Z62" s="25"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="25"/>
-      <c r="AC62" s="25"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="63"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="63"/>
+      <c r="AB62" s="63"/>
+      <c r="AC62" s="63"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="25"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="63"/>
+      <c r="W63" s="63"/>
+      <c r="X63" s="63"/>
+      <c r="Y63" s="63"/>
+      <c r="Z63" s="63"/>
+      <c r="AA63" s="63"/>
+      <c r="AB63" s="63"/>
+      <c r="AC63" s="63"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="25"/>
-      <c r="V64" s="25"/>
-      <c r="W64" s="25"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="25"/>
-      <c r="AB64" s="25"/>
-      <c r="AC64" s="25"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="63"/>
+      <c r="W64" s="63"/>
+      <c r="X64" s="63"/>
+      <c r="Y64" s="63"/>
+      <c r="Z64" s="63"/>
+      <c r="AA64" s="63"/>
+      <c r="AB64" s="63"/>
+      <c r="AC64" s="63"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="25"/>
-      <c r="AA65" s="25"/>
-      <c r="AB65" s="25"/>
-      <c r="AC65" s="25"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="63"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="63"/>
+      <c r="Y65" s="63"/>
+      <c r="Z65" s="63"/>
+      <c r="AA65" s="63"/>
+      <c r="AB65" s="63"/>
+      <c r="AC65" s="63"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="25"/>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="25"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="63"/>
+      <c r="U66" s="63"/>
+      <c r="V66" s="63"/>
+      <c r="W66" s="63"/>
+      <c r="X66" s="63"/>
+      <c r="Y66" s="63"/>
+      <c r="Z66" s="63"/>
+      <c r="AA66" s="63"/>
+      <c r="AB66" s="63"/>
+      <c r="AC66" s="63"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="63"/>
+      <c r="U67" s="63"/>
+      <c r="V67" s="63"/>
+      <c r="W67" s="63"/>
+      <c r="X67" s="63"/>
+      <c r="Y67" s="63"/>
+      <c r="Z67" s="63"/>
+      <c r="AA67" s="63"/>
+      <c r="AB67" s="63"/>
+      <c r="AC67" s="63"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="25"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="25"/>
-      <c r="AC68" s="25"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="63"/>
+      <c r="U68" s="63"/>
+      <c r="V68" s="63"/>
+      <c r="W68" s="63"/>
+      <c r="X68" s="63"/>
+      <c r="Y68" s="63"/>
+      <c r="Z68" s="63"/>
+      <c r="AA68" s="63"/>
+      <c r="AB68" s="63"/>
+      <c r="AC68" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9603,11 +9337,11 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
@@ -9623,11 +9357,11 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="65" t="s">
         <v>1398</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
